--- a/weatherDoc/SprintTasks.xlsx
+++ b/weatherDoc/SprintTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\doc\studia\metodykiZwinne\pogoda_v3.0\demo\weatherDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\git-projekt\pogoda_v3.0\weatherDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{0F7DAD95-F2B2-441F-A904-44DA9805A512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C89440-706A-471A-A07D-EFD19E55B9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Adam C.</t>
   </si>
@@ -104,12 +95,21 @@
   </si>
   <si>
     <t>sp</t>
+  </si>
+  <si>
+    <t>Podstawowe funkcjonalności</t>
+  </si>
+  <si>
+    <t>Testy jednostkowe</t>
+  </si>
+  <si>
+    <t>Dokjumentacja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -587,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,18 +627,27 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>

--- a/weatherDoc/SprintTasks.xlsx
+++ b/weatherDoc/SprintTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\git-projekt\pogoda_v3.0\weatherDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C89440-706A-471A-A07D-EFD19E55B9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66103273-AAA4-4F9C-9560-479B13E7DF35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Adam C.</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>BUGI - naprawa</t>
-  </si>
-  <si>
-    <t>sp</t>
   </si>
   <si>
     <t>Podstawowe funkcjonalności</t>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +597,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -619,40 +616,37 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -660,19 +654,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>21</v>

--- a/weatherDoc/SprintTasks.xlsx
+++ b/weatherDoc/SprintTasks.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\git-projekt\pogoda_v3.0\weatherDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\doc\studia\metodykiZwinne\pogoda_v3.0\demo\weatherDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66103273-AAA4-4F9C-9560-479B13E7DF35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6ACEF-32A6-4737-9246-9EE7D3545E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint I" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint II" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>Adam C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agnieszka </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Bozena</t>
   </si>
@@ -40,27 +34,6 @@
     <t>Mateusz</t>
   </si>
   <si>
-    <t>Lista zadanń</t>
-  </si>
-  <si>
-    <t>Typ zadania</t>
-  </si>
-  <si>
-    <t>BUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprint I </t>
-  </si>
-  <si>
-    <t>numer</t>
-  </si>
-  <si>
-    <t>#5948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funkcjonalność </t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -101,13 +74,112 @@
   </si>
   <si>
     <t>Dokjumentacja</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>Mateusz Medon</t>
+  </si>
+  <si>
+    <t>Bożena Mazur</t>
+  </si>
+  <si>
+    <t>Agnieszka Wardęga</t>
+  </si>
+  <si>
+    <t>Analiza wymagań</t>
+  </si>
+  <si>
+    <t>Opracowanie architektury projektu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opracowanie wstępnych założeń </t>
+  </si>
+  <si>
+    <t>Podstawowe założenia biznesowe</t>
+  </si>
+  <si>
+    <t>zakończone</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Wybór technologi</t>
+  </si>
+  <si>
+    <t>Story points</t>
+  </si>
+  <si>
+    <t>Adam Czerwonka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktualizowanie założeń bazodanowych </t>
+  </si>
+  <si>
+    <t>w toku</t>
+  </si>
+  <si>
+    <t>implementacja bazy danych</t>
+  </si>
+  <si>
+    <t>zapytania SQL</t>
+  </si>
+  <si>
+    <t>debugowanie LOG</t>
+  </si>
+  <si>
+    <t>Dokumentacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface </t>
+  </si>
+  <si>
+    <t>Implementacja interfejsu  użytkownika</t>
+  </si>
+  <si>
+    <t>Naprawa błędów index.html</t>
+  </si>
+  <si>
+    <t>Implementacja style.css</t>
+  </si>
+  <si>
+    <t>Praca nad zapytaniami do serwera</t>
+  </si>
+  <si>
+    <t>bug komunikacja servera</t>
+  </si>
+  <si>
+    <t>dokumentacja v0.1</t>
+  </si>
+  <si>
+    <t>dokumentacja v0.2</t>
+  </si>
+  <si>
+    <t>testy jednostkowe interfejsu użytkownika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praca nad logami </t>
+  </si>
+  <si>
+    <t>FAZA I</t>
+  </si>
+  <si>
+    <t>FAZA II</t>
+  </si>
+  <si>
+    <t>SPRINT II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -147,8 +211,33 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,16 +251,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -179,24 +284,384 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
+    <cellStyle name="Dane wyjściowe" xfId="4" builtinId="21"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Zły" xfId="2" builtinId="27"/>
+    <cellStyle name="Uwaga" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,173 +972,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DCB3A7-6FFF-4D35-A659-D6609AFC3915}">
+  <dimension ref="C2:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+      <c r="K5" s="20">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>5</v>
+      </c>
+      <c r="K12" s="23">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5">
+        <v>4</v>
+      </c>
+      <c r="O12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F19" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10">
+        <v>5</v>
+      </c>
+      <c r="K20" s="23">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>4</v>
+      </c>
+      <c r="O20" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="21">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
+      <c r="F27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28" s="10">
+        <v>5</v>
+      </c>
+      <c r="K28" s="23">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2</v>
+      </c>
+      <c r="M28" s="5">
+        <v>3</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4</v>
+      </c>
+      <c r="O28" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="18">
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:O19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/weatherDoc/SprintTasks.xlsx
+++ b/weatherDoc/SprintTasks.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\doc\studia\metodykiZwinne\pogoda_v3.0\demo\weatherDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\studia\metodykiZwinne\pogoda_v3.0\demo\weatherDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6ACEF-32A6-4737-9246-9EE7D3545E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A26BA6F-E3DA-40CE-ADF9-EFE5CB45238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint I" sheetId="2" r:id="rId1"/>
     <sheet name="Sprint II" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint III" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Bozena</t>
   </si>
@@ -173,13 +174,46 @@
   </si>
   <si>
     <t>SPRINT II</t>
+  </si>
+  <si>
+    <t>rozwiązywanie bugow</t>
+  </si>
+  <si>
+    <t>dodawanie nowych lokalizacji w backendzie</t>
+  </si>
+  <si>
+    <t>Praca nad problemami User Interface</t>
+  </si>
+  <si>
+    <t>Zmiana wygłądu strony</t>
+  </si>
+  <si>
+    <t>dokumentacja v0.3</t>
+  </si>
+  <si>
+    <t>Dodanie stopki</t>
+  </si>
+  <si>
+    <t>Dodanie stylów css</t>
+  </si>
+  <si>
+    <t>brak</t>
+  </si>
+  <si>
+    <t>zapisywanie statystyki do pliku</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>SPRINT III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +270,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +315,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -586,15 +633,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -622,13 +670,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="3" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,10 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -653,15 +696,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="6" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
     <cellStyle name="Dane wyjściowe" xfId="4" builtinId="21"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Uwaga" xfId="5" builtinId="10"/>
+    <cellStyle name="Zły" xfId="6" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1473,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DCB3A7-6FFF-4D35-A659-D6609AFC3915}">
   <dimension ref="C2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,32 +1538,32 @@
   <sheetData>
     <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="32" t="s">
@@ -1637,47 +1688,47 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="32" t="s">
@@ -1810,7 +1861,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>31</v>
@@ -1824,52 +1875,52 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="40">
-        <v>0.25</v>
+      <c r="O16" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -2018,52 +2069,52 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="40">
+      <c r="O24" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
     </row>
     <row r="26" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="32" t="s">
@@ -2135,7 +2186,9 @@
       <c r="L29" s="7"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="8" t="s">
@@ -2156,7 +2209,9 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="11" t="s">
@@ -2177,10 +2232,14 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="14"/>
+      <c r="O31" s="31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:O19"/>
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="K27:O27"/>
     <mergeCell ref="C25:O25"/>
@@ -2197,8 +2256,687 @@
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A42D230-DEAE-4A83-B77F-A1D457D6FE51}">
+  <dimension ref="C3:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="20">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>5</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4</v>
+      </c>
+      <c r="O13" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10">
+        <v>5</v>
+      </c>
+      <c r="K20" s="23">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>4</v>
+      </c>
+      <c r="O20" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="12">
+        <v>8</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="10">
+        <v>5</v>
+      </c>
+      <c r="K27" s="23">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5">
+        <v>3</v>
+      </c>
+      <c r="N27" s="5">
+        <v>4</v>
+      </c>
+      <c r="O27" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:O18"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:O19"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
